--- a/biology/Zoologie/Ariane_de_Lesson/Ariane_de_Lesson.xlsx
+++ b/biology/Zoologie/Ariane_de_Lesson/Ariane_de_Lesson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazilis amazilia
 L'Ariane de Lesson (Amazilis amazilia) est une espèce de colibris.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Équateur et au Pérou.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts sèches et humides de basses et hautes altitudes, la végétation sèche de broussailles, la végétation de plaines et la végétation du désert mais aussi les anciennes forêts lourdement dégradées, les zones urbaines, les jardins ruraux et les plantations agricoles.
 </t>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Alan P. Peterson[1], 5 sous-espèces ont été décrites :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Alan P. Peterson, 5 sous-espèces ont été décrites :
 Amazilis amazilia alticola Gould 1860 ;
 Amazilis amazilia amazilia (Lesson) 1827 ;
 Amazilis amazilia caeruleigularis Carriker 1933 ;
